--- a/biology/Médecine/Muscle_nasal/Muscle_nasal.xlsx
+++ b/biology/Médecine/Muscle_nasal/Muscle_nasal.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F4"/>
+  <dimension ref="A1:H10"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Le muscle nasal est un muscle peaucier du nez semblable à un sphincter.
 Il recouvre les cartilages nasaux.
@@ -517,9 +529,17 @@
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t xml:space="preserve">Partie transverse
-Description
-Cette partie est aussi nommée  muscle triangulaire du nez ou muscle compresseur de la narine ou muscle transverse du nez ou muscle transversal du nez.
+          <t>Partie transverse</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>Description</t>
+        </is>
+      </c>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Cette partie est aussi nommée  muscle triangulaire du nez ou muscle compresseur de la narine ou muscle transverse du nez ou muscle transversal du nez.
 C'est un muscle peaucier petit, aplati, mince et triangulaire situé sur le côté du nez.
 Origine
 Elle naît du maxillaire, au-dessus et latéralement de la fosse incisive.
@@ -527,13 +547,129 @@
 Ses fibres progressent vers le haut et vers le plan médian, se développant en une fine aponévrose qui se continue sur l'arête du nez.
 Terminaison
 Elle se termine sur l'aponévrose du muscle opposé et celle du muscle procerus.
-Innervation
-Elle est innervée par un rameau de la branche temporo-faciale du nerf facial.
-Action
-Elle comprime les narines et, pour certaines personnes, peut les fermer complètement.
-Partie alaire
-Description
-Cette partie est aussi nommée muscle dilatateur de la narine ou muscle dilatateur propre de Santorini ou muscle pinnal transverse de Cruveilhier.
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="1" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>Muscle_nasal</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>Portail:Médecine/Articles liés</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Muscle_nasal</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>Description</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>Partie transverse</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>Innervation</t>
+        </is>
+      </c>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Elle est innervée par un rameau de la branche temporo-faciale du nerf facial.
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="1" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>Muscle_nasal</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>Portail:Médecine/Articles liés</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Muscle_nasal</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>Description</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>Partie transverse</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>Action</t>
+        </is>
+      </c>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Elle comprime les narines et, pour certaines personnes, peut les fermer complètement.
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="1" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>Muscle_nasal</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>Portail:Médecine/Articles liés</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Muscle_nasal</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>Description</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>Partie alaire</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>Description</t>
+        </is>
+      </c>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Cette partie est aussi nommée muscle dilatateur de la narine ou muscle dilatateur propre de Santorini ou muscle pinnal transverse de Cruveilhier.
 C'est un muscle peaucier petit, aplati, très court, mince et triangulaire situé sur l'aile du nez.
 Origine
 Elle naît du maxillaire, au-dessus de l'incisive latérale.
@@ -541,44 +677,162 @@
 Terminaison
 Elle se termine sur le grand cartilage alaire.
 Ses fibres médiales ont tendance à fusionner avec le muscle abaisseur du septum nasal, et certains auteurs la considèrent comme faisant partie de ce muscle.
-Innervation
-Elle est innervée par un rameau de la branche temporo-faciale du nerf facial.
-Action
-Elle dilate les narines.
 </t>
         </is>
       </c>
     </row>
-    <row r="4">
-      <c r="A4" s="1" t="n">
-        <v>2</v>
-      </c>
-      <c r="B4" t="inlineStr">
+    <row r="7">
+      <c r="A7" s="1" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
         <is>
           <t>Muscle_nasal</t>
         </is>
       </c>
-      <c r="C4" t="inlineStr">
+      <c r="C7" t="inlineStr">
         <is>
           <t>Portail:Médecine/Articles liés</t>
         </is>
       </c>
-      <c r="D4" t="inlineStr">
+      <c r="D7" t="inlineStr">
         <is>
           <t>https://fr.wikipedia.org/wiki/Muscle_nasal</t>
         </is>
       </c>
-      <c r="E4" t="inlineStr">
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>Description</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>Partie alaire</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>Innervation</t>
+        </is>
+      </c>
+      <c r="H7" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Elle est innervée par un rameau de la branche temporo-faciale du nerf facial.
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="1" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>Muscle_nasal</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>Portail:Médecine/Articles liés</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Muscle_nasal</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>Description</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>Partie alaire</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr">
+        <is>
+          <t>Action</t>
+        </is>
+      </c>
+      <c r="H8" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Elle dilate les narines.
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="1" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>Muscle_nasal</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>Portail:Médecine/Articles liés</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Muscle_nasal</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
         <is>
           <t>Intérêt clinique</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Fente labiale et fente palatine
-Le muscle nasal est l'un des muscles clés qui n'est pas formé ou inséré correctement avec une fente labio-palatine[1]. La tête de la partie transversale doit être identifiée lors de la chirurgie reconstructive afin qu'elle puisse être suturée chirurgicalement la cloison nasale[2],[1]. L'origine maxillaire peut également être repositionnée pour une meilleure symétrie[2] .
-Test du nerf facial
-En raison de sa surface, le muscle nasal peut être utilisé pour tester le nerf facial[3],[4]. Plus précisément, il peut être utilisé pour tester les branches zygomatiques[4] .
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>Fente labiale et fente palatine</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr"/>
+      <c r="H9" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Le muscle nasal est l'un des muscles clés qui n'est pas formé ou inséré correctement avec une fente labio-palatine. La tête de la partie transversale doit être identifiée lors de la chirurgie reconstructive afin qu'elle puisse être suturée chirurgicalement la cloison nasale,. L'origine maxillaire peut également être repositionnée pour une meilleure symétrie .
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="1" t="n">
+        <v>8</v>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>Muscle_nasal</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>Portail:Médecine/Articles liés</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Muscle_nasal</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>Intérêt clinique</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>Test du nerf facial</t>
+        </is>
+      </c>
+      <c r="G10" t="inlineStr"/>
+      <c r="H10" t="inlineStr">
+        <is>
+          <t xml:space="preserve">En raison de sa surface, le muscle nasal peut être utilisé pour tester le nerf facial,. Plus précisément, il peut être utilisé pour tester les branches zygomatiques .
 </t>
         </is>
       </c>
